--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_CONSTR_yoy_AR2_50_9_winter.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_CONSTR_yoy_AR2_50_9_winter.xlsx
@@ -392,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -417,299 +417,276 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2">
-        <v>39400</v>
+        <v>39765</v>
       </c>
       <c r="B2">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="D2">
-        <v>2008</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2">
-        <v>39765</v>
+        <v>40130</v>
       </c>
       <c r="B3">
-        <v>2008</v>
+        <v>2009</v>
+      </c>
+      <c r="C3">
+        <v>-1.317619545389281</v>
       </c>
       <c r="D3">
-        <v>2009</v>
-      </c>
-      <c r="E3">
-        <v>-2.503026633163052</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2">
-        <v>40130</v>
+        <v>40494</v>
       </c>
       <c r="B4">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="C4">
-        <v>-1.31761954538927</v>
+        <v>2.771597318554297</v>
       </c>
       <c r="D4">
-        <v>2010</v>
-      </c>
-      <c r="E4">
-        <v>0.1692474513351083</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2">
-        <v>40494</v>
+        <v>40862</v>
       </c>
       <c r="B5">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="C5">
-        <v>2.771597318554297</v>
+        <v>1.799362536952542</v>
       </c>
       <c r="D5">
-        <v>2011</v>
-      </c>
-      <c r="E5">
-        <v>3.628343599698969</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2">
-        <v>40862</v>
+        <v>41228</v>
       </c>
       <c r="B6">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="C6">
-        <v>1.799362536952542</v>
+        <v>2.123182427147152</v>
       </c>
       <c r="D6">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="E6">
-        <v>0.6019339353565023</v>
+        <v>4.792854588620821</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2">
-        <v>41228</v>
+        <v>41592</v>
       </c>
       <c r="B7">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="C7">
-        <v>2.123182427147152</v>
+        <v>7.317297369612819</v>
       </c>
       <c r="D7">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="E7">
-        <v>4.990675812925582</v>
+        <v>7.239454936865775</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2">
-        <v>41592</v>
+        <v>41957</v>
       </c>
       <c r="B8">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="C8">
-        <v>7.317297369612819</v>
+        <v>4.260319658857736</v>
       </c>
       <c r="D8">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="E8">
-        <v>5.969804644981291</v>
+        <v>0.4361429468412448</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2">
-        <v>41957</v>
+        <v>42321</v>
       </c>
       <c r="B9">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="C9">
-        <v>4.260319658857736</v>
+        <v>-0.05262415810141086</v>
       </c>
       <c r="D9">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="E9">
-        <v>0.5177688839717476</v>
+        <v>1.392195163617171</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2">
-        <v>42321</v>
+        <v>42689</v>
       </c>
       <c r="B10">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="C10">
-        <v>-0.05262415810141086</v>
+        <v>1.459778471779982</v>
       </c>
       <c r="D10">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="E10">
-        <v>2.170064026854179</v>
+        <v>1.493220091771108</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2">
-        <v>42689</v>
+        <v>43053</v>
       </c>
       <c r="B11">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="C11">
-        <v>1.459778471779982</v>
+        <v>3.002208343813528</v>
       </c>
       <c r="D11">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="E11">
-        <v>2.91162218972072</v>
+        <v>2.622364272988187</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2">
-        <v>43053</v>
+        <v>43418</v>
       </c>
       <c r="B12">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="C12">
-        <v>3.002208343813528</v>
+        <v>4.020433260014977</v>
       </c>
       <c r="D12">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="E12">
-        <v>3.609713327497399</v>
+        <v>3.113086948791377</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2">
-        <v>43418</v>
+        <v>43783</v>
       </c>
       <c r="B13">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C13">
-        <v>4.020433260014977</v>
+        <v>3.53224976671227</v>
       </c>
       <c r="D13">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="E13">
-        <v>3.414265482440926</v>
+        <v>2.757421718286168</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2">
-        <v>43783</v>
+        <v>44159</v>
       </c>
       <c r="B14">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C14">
-        <v>3.53224976671227</v>
+        <v>-0.985458715495402</v>
       </c>
       <c r="D14">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="E14">
-        <v>2.15810425970917</v>
+        <v>-1.373617952268746</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2">
-        <v>44159</v>
+        <v>44525</v>
       </c>
       <c r="B15">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="C15">
-        <v>-0.985458715495402</v>
+        <v>-4.365687260408224</v>
       </c>
       <c r="D15">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="E15">
-        <v>-0.5625294724799446</v>
+        <v>1.324283050325015</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2">
-        <v>44525</v>
+        <v>44890</v>
       </c>
       <c r="B16">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C16">
-        <v>-4.365687260408224</v>
+        <v>1.27347919322387</v>
       </c>
       <c r="D16">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="E16">
-        <v>3.094432991283247</v>
+        <v>-0.5025420863900898</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2">
-        <v>44890</v>
+        <v>45254</v>
       </c>
       <c r="B17">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C17">
-        <v>1.27347919322387</v>
+        <v>-1.339436245206127</v>
       </c>
       <c r="D17">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="E17">
-        <v>-1.770033892097977</v>
+        <v>-2.371854438773213</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2">
-        <v>45254</v>
+        <v>45618</v>
       </c>
       <c r="B18">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="C18">
-        <v>-1.339436245206127</v>
+        <v>-3.451527003230626</v>
       </c>
       <c r="D18">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="E18">
-        <v>-3.192473321073452</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="2">
-        <v>45618</v>
-      </c>
-      <c r="B19">
-        <v>2024</v>
-      </c>
-      <c r="C19">
-        <v>-3.451527003230626</v>
-      </c>
-      <c r="D19">
-        <v>2025</v>
-      </c>
-      <c r="E19">
-        <v>-1.510559672577028</v>
+        <v>-1.436963918858969</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_CONSTR_yoy_AR2_50_9_winter.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_CONSTR_yoy_AR2_50_9_winter.xlsx
@@ -392,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -417,276 +417,299 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2">
-        <v>39765</v>
+        <v>39400</v>
       </c>
       <c r="B2">
+        <v>2007</v>
+      </c>
+      <c r="C2">
+        <v>4.930115226412357</v>
+      </c>
+      <c r="D2">
         <v>2008</v>
-      </c>
-      <c r="D2">
-        <v>2009</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2">
-        <v>40130</v>
+        <v>39765</v>
       </c>
       <c r="B3">
+        <v>2008</v>
+      </c>
+      <c r="C3">
+        <v>1.457587285166628</v>
+      </c>
+      <c r="D3">
         <v>2009</v>
-      </c>
-      <c r="C3">
-        <v>-1.317619545389281</v>
-      </c>
-      <c r="D3">
-        <v>2010</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2">
-        <v>40494</v>
+        <v>40130</v>
       </c>
       <c r="B4">
+        <v>2009</v>
+      </c>
+      <c r="C4">
+        <v>-0.9140166223623458</v>
+      </c>
+      <c r="D4">
         <v>2010</v>
-      </c>
-      <c r="C4">
-        <v>2.771597318554297</v>
-      </c>
-      <c r="D4">
-        <v>2011</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2">
-        <v>40862</v>
+        <v>40494</v>
       </c>
       <c r="B5">
+        <v>2010</v>
+      </c>
+      <c r="C5">
+        <v>2.585942866987878</v>
+      </c>
+      <c r="D5">
         <v>2011</v>
       </c>
-      <c r="C5">
-        <v>1.799362536952542</v>
-      </c>
-      <c r="D5">
-        <v>2012</v>
+      <c r="E5">
+        <v>4.109775046142405</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2">
-        <v>41228</v>
+        <v>40862</v>
       </c>
       <c r="B6">
+        <v>2011</v>
+      </c>
+      <c r="C6">
+        <v>4.253963781362402</v>
+      </c>
+      <c r="D6">
         <v>2012</v>
       </c>
-      <c r="C6">
-        <v>2.123182427147152</v>
-      </c>
-      <c r="D6">
-        <v>2013</v>
-      </c>
       <c r="E6">
-        <v>4.792854588620821</v>
+        <v>2.863367440851095</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2">
-        <v>41592</v>
+        <v>41228</v>
       </c>
       <c r="B7">
+        <v>2012</v>
+      </c>
+      <c r="C7">
+        <v>1.752870900283909</v>
+      </c>
+      <c r="D7">
         <v>2013</v>
       </c>
-      <c r="C7">
-        <v>7.317297369612819</v>
-      </c>
-      <c r="D7">
-        <v>2014</v>
-      </c>
       <c r="E7">
-        <v>7.239454936865775</v>
+        <v>1.520397254708405</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2">
-        <v>41957</v>
+        <v>41592</v>
       </c>
       <c r="B8">
+        <v>2013</v>
+      </c>
+      <c r="C8">
+        <v>-1.479696720105139</v>
+      </c>
+      <c r="D8">
         <v>2014</v>
       </c>
-      <c r="C8">
-        <v>4.260319658857736</v>
-      </c>
-      <c r="D8">
-        <v>2015</v>
-      </c>
       <c r="E8">
-        <v>0.4361429468412448</v>
+        <v>2.503951807923066</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2">
-        <v>42321</v>
+        <v>41957</v>
       </c>
       <c r="B9">
+        <v>2014</v>
+      </c>
+      <c r="C9">
+        <v>3.900127535411246</v>
+      </c>
+      <c r="D9">
         <v>2015</v>
       </c>
-      <c r="C9">
-        <v>-0.05262415810141086</v>
-      </c>
-      <c r="D9">
-        <v>2016</v>
-      </c>
       <c r="E9">
-        <v>1.392195163617171</v>
+        <v>1.194160460927884</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2">
-        <v>42689</v>
+        <v>42321</v>
       </c>
       <c r="B10">
+        <v>2015</v>
+      </c>
+      <c r="C10">
+        <v>0.03947433952959933</v>
+      </c>
+      <c r="D10">
         <v>2016</v>
       </c>
-      <c r="C10">
-        <v>1.459778471779982</v>
-      </c>
-      <c r="D10">
-        <v>2017</v>
-      </c>
       <c r="E10">
-        <v>1.493220091771108</v>
+        <v>1.459149667419779</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2">
-        <v>43053</v>
+        <v>42689</v>
       </c>
       <c r="B11">
+        <v>2016</v>
+      </c>
+      <c r="C11">
+        <v>2.192778679161944</v>
+      </c>
+      <c r="D11">
         <v>2017</v>
       </c>
-      <c r="C11">
-        <v>3.002208343813528</v>
-      </c>
-      <c r="D11">
-        <v>2018</v>
-      </c>
       <c r="E11">
-        <v>2.622364272988187</v>
+        <v>1.586376095629216</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2">
-        <v>43418</v>
+        <v>43053</v>
       </c>
       <c r="B12">
+        <v>2017</v>
+      </c>
+      <c r="C12">
+        <v>3.40836448860673</v>
+      </c>
+      <c r="D12">
         <v>2018</v>
       </c>
-      <c r="C12">
-        <v>4.020433260014977</v>
-      </c>
-      <c r="D12">
-        <v>2019</v>
-      </c>
       <c r="E12">
-        <v>3.113086948791377</v>
+        <v>2.570658574505469</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2">
-        <v>43783</v>
+        <v>43418</v>
       </c>
       <c r="B13">
+        <v>2018</v>
+      </c>
+      <c r="C13">
+        <v>2.799070570134488</v>
+      </c>
+      <c r="D13">
         <v>2019</v>
       </c>
-      <c r="C13">
-        <v>3.53224976671227</v>
-      </c>
-      <c r="D13">
-        <v>2020</v>
-      </c>
       <c r="E13">
-        <v>2.757421718286168</v>
+        <v>2.479713128614147</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2">
-        <v>44159</v>
+        <v>43783</v>
       </c>
       <c r="B14">
+        <v>2019</v>
+      </c>
+      <c r="C14">
+        <v>4.195393191694419</v>
+      </c>
+      <c r="D14">
         <v>2020</v>
       </c>
-      <c r="C14">
-        <v>-0.985458715495402</v>
-      </c>
-      <c r="D14">
-        <v>2021</v>
-      </c>
       <c r="E14">
-        <v>-1.373617952268746</v>
+        <v>2.359935293525561</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2">
-        <v>44525</v>
+        <v>44159</v>
       </c>
       <c r="B15">
+        <v>2020</v>
+      </c>
+      <c r="C15">
+        <v>1.666553973046048</v>
+      </c>
+      <c r="D15">
         <v>2021</v>
       </c>
-      <c r="C15">
-        <v>-4.365687260408224</v>
-      </c>
-      <c r="D15">
-        <v>2022</v>
-      </c>
       <c r="E15">
-        <v>1.324283050325015</v>
+        <v>-0.4512719783814068</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2">
-        <v>44890</v>
+        <v>44525</v>
       </c>
       <c r="B16">
+        <v>2021</v>
+      </c>
+      <c r="C16">
+        <v>1.879266440112803</v>
+      </c>
+      <c r="D16">
         <v>2022</v>
       </c>
-      <c r="C16">
-        <v>1.27347919322387</v>
-      </c>
-      <c r="D16">
-        <v>2023</v>
-      </c>
       <c r="E16">
-        <v>-0.5025420863900898</v>
+        <v>1.081814991510499</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2">
-        <v>45254</v>
+        <v>44890</v>
       </c>
       <c r="B17">
+        <v>2022</v>
+      </c>
+      <c r="C17">
+        <v>-2.620683231370946</v>
+      </c>
+      <c r="D17">
         <v>2023</v>
       </c>
-      <c r="C17">
-        <v>-1.339436245206127</v>
-      </c>
-      <c r="D17">
-        <v>2024</v>
-      </c>
       <c r="E17">
-        <v>-2.371854438773213</v>
+        <v>-1.174318230871441</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2">
+        <v>45254</v>
+      </c>
+      <c r="B18">
+        <v>2023</v>
+      </c>
+      <c r="C18">
+        <v>-3.036556262700274</v>
+      </c>
+      <c r="D18">
+        <v>2024</v>
+      </c>
+      <c r="E18">
+        <v>0.07123445333143685</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="2">
         <v>45618</v>
       </c>
-      <c r="B18">
+      <c r="B19">
         <v>2024</v>
       </c>
-      <c r="C18">
-        <v>-3.451527003230626</v>
-      </c>
-      <c r="D18">
+      <c r="C19">
+        <v>-2.953443685011514</v>
+      </c>
+      <c r="D19">
         <v>2025</v>
       </c>
-      <c r="E18">
-        <v>-1.436963918858969</v>
+      <c r="E19">
+        <v>-1.196842846539037</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_CONSTR_yoy_AR2_50_9_winter.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_CONSTR_yoy_AR2_50_9_winter.xlsx
@@ -641,7 +641,7 @@
         <v>2021</v>
       </c>
       <c r="E15">
-        <v>-0.4512719783814068</v>
+        <v>0.7837484735428113</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -658,7 +658,7 @@
         <v>2022</v>
       </c>
       <c r="E16">
-        <v>1.081814991510499</v>
+        <v>1.897396692213404</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -675,7 +675,7 @@
         <v>2023</v>
       </c>
       <c r="E17">
-        <v>-1.174318230871441</v>
+        <v>0.995548086544229</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -692,7 +692,7 @@
         <v>2024</v>
       </c>
       <c r="E18">
-        <v>0.07123445333143685</v>
+        <v>1.480960099708817</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -709,7 +709,7 @@
         <v>2025</v>
       </c>
       <c r="E19">
-        <v>-1.196842846539037</v>
+        <v>-0.3708115103701948</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_CONSTR_yoy_AR2_50_9_winter.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_CONSTR_yoy_AR2_50_9_winter.xlsx
@@ -422,9 +422,6 @@
       <c r="B2">
         <v>2007</v>
       </c>
-      <c r="C2">
-        <v>4.930115226412357</v>
-      </c>
       <c r="D2">
         <v>2008</v>
       </c>
@@ -436,9 +433,6 @@
       <c r="B3">
         <v>2008</v>
       </c>
-      <c r="C3">
-        <v>1.457587285166628</v>
-      </c>
       <c r="D3">
         <v>2009</v>
       </c>
@@ -471,7 +465,7 @@
         <v>2011</v>
       </c>
       <c r="E5">
-        <v>4.109775046142405</v>
+        <v>4.10977504614245</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -516,13 +510,13 @@
         <v>2013</v>
       </c>
       <c r="C8">
-        <v>-1.479696720105139</v>
+        <v>-1.479696720105184</v>
       </c>
       <c r="D8">
         <v>2014</v>
       </c>
       <c r="E8">
-        <v>2.503951807923066</v>
+        <v>2.503951807923088</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -539,7 +533,7 @@
         <v>2015</v>
       </c>
       <c r="E9">
-        <v>1.194160460927884</v>
+        <v>1.194160460927862</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -556,7 +550,7 @@
         <v>2016</v>
       </c>
       <c r="E10">
-        <v>1.459149667419779</v>
+        <v>1.459149667419735</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -567,7 +561,7 @@
         <v>2016</v>
       </c>
       <c r="C11">
-        <v>2.192778679161944</v>
+        <v>2.192778679161966</v>
       </c>
       <c r="D11">
         <v>2017</v>
@@ -584,13 +578,13 @@
         <v>2017</v>
       </c>
       <c r="C12">
-        <v>3.40836448860673</v>
+        <v>3.408364488606752</v>
       </c>
       <c r="D12">
         <v>2018</v>
       </c>
       <c r="E12">
-        <v>2.570658574505469</v>
+        <v>2.570658574505447</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -607,7 +601,7 @@
         <v>2019</v>
       </c>
       <c r="E13">
-        <v>2.479713128614147</v>
+        <v>2.479713128614192</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -635,13 +629,13 @@
         <v>2020</v>
       </c>
       <c r="C15">
-        <v>1.666553973046048</v>
+        <v>1.666553973046025</v>
       </c>
       <c r="D15">
         <v>2021</v>
       </c>
       <c r="E15">
-        <v>0.7837484735428113</v>
+        <v>0.7837484735427891</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -652,13 +646,13 @@
         <v>2021</v>
       </c>
       <c r="C16">
-        <v>1.879266440112803</v>
+        <v>1.879266440112781</v>
       </c>
       <c r="D16">
         <v>2022</v>
       </c>
       <c r="E16">
-        <v>1.897396692213404</v>
+        <v>1.897396692213427</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -669,7 +663,7 @@
         <v>2022</v>
       </c>
       <c r="C17">
-        <v>-2.620683231370946</v>
+        <v>-2.620683231370935</v>
       </c>
       <c r="D17">
         <v>2023</v>
@@ -686,7 +680,7 @@
         <v>2023</v>
       </c>
       <c r="C18">
-        <v>-3.036556262700274</v>
+        <v>-3.036556262700263</v>
       </c>
       <c r="D18">
         <v>2024</v>
@@ -709,7 +703,7 @@
         <v>2025</v>
       </c>
       <c r="E19">
-        <v>-0.3708115103701948</v>
+        <v>-0.370811510370217</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_CONSTR_yoy_AR2_50_9_winter.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_CONSTR_yoy_AR2_50_9_winter.xlsx
@@ -392,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -706,6 +706,23 @@
         <v>-0.370811510370217</v>
       </c>
     </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="2">
+        <v>45986</v>
+      </c>
+      <c r="B20">
+        <v>2025</v>
+      </c>
+      <c r="C20">
+        <v>-0.7200474048664085</v>
+      </c>
+      <c r="D20">
+        <v>2026</v>
+      </c>
+      <c r="E20">
+        <v>-0.2284091334091687</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
